--- a/data/Map141.xlsx
+++ b/data/Map141.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>イベント実行</t>
   </si>
@@ -96,6 +96,91 @@
     <t>\n&lt;オーク&gt;ゴーーーーブ！！</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;バカじゃないの？いい加減にしてよ！</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;はぁ～？そっちが悪いにゃ！</t>
+  </si>
+  <si>
+    <t>\n&lt;ライム&gt;はいはいはいはい。落ち着いてー。
+どっちが悪いかゲームで決めよー。</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;あ？ゲーム？
+何にゃ。</t>
+  </si>
+  <si>
+    <t>\n&lt;ライム&gt;旗上げゲーム！</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;やらないわよバカバカしい。</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;負けるのが怖いにゃ？
+アタシの瞬発力に勝てるわけないにゃんねー！
+しゅっ！しゅっ！しゅっ！</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;あんた脳みそにアイロンでもかけたの？
+シワが無いみたいだけど。</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;言ってる意味が分からんにゃーん。
+ビビってんのか？
+しゅっ！しゅっ！</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;旗上げは瞬発力より判断力よ。
+あんたなんかに負けるわけないでしょ。</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;お、やんのか？
+どっちが上か、赤白付けてやろうにゃん。</t>
+  </si>
+  <si>
+    <t>\n&lt;ライム&gt;負けた方が謝ること。言い訳無し。
+一発勝負。
+いくよー？</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;負けたらクツでもケツでも舐めてやるわよ。</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;クツもケツも舐めさせてやるし。</t>
+  </si>
+  <si>
+    <t>\n&lt;ライム&gt;赤\.\.上げ\.ない♪\.\.\.\.白\.\.上げ\.ない♪\.\.\.\.
+赤\.\.上げ\.ない\.で♪\.\.\.\.白\.\.上げ\.ない♪</t>
+  </si>
+  <si>
+    <t>\n&lt;ライム&gt;赤\.\.下げ\.て♪\.\.\.\.白\.\.下げ\.て♪\.\.\.\.
+白\.\.上げ\.ない\.で♪\.\.\.\.白\.\.下げ\.て♪</t>
+  </si>
+  <si>
+    <t>\n&lt;ライム&gt;赤\.\.上げ\.ない♪\.\.\.\.白\.\.上げ\.ない♪\.\.\.\.
+白\.\.上げ\.ない\.で\.\^</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;上げさせろにゃ！</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;あーもうムカツクわね！</t>
+  </si>
+  <si>
+    <t>\n&lt;ライム&gt;ちょ、ちょっとまってよー！
+これからなのにー！</t>
+  </si>
+  <si>
+    <t>\n&lt;研究員1&gt;こいつらほんと仲良いっすね。</t>
+  </si>
+  <si>
+    <t>\n&lt;研究員2&gt;どっちかが勝ったらまた喧嘩になっちゃいますからね。
+ライムちゃん、いい子ですね。</t>
+  </si>
+  <si>
+    <t>\n&lt;研究員1&gt;いや、多分あれ素っすよ。</t>
+  </si>
+  <si>
     <t>リリーイベ</t>
   </si>
   <si>
@@ -105,6 +190,9 @@
     <t>シィナイベ</t>
   </si>
   <si>
+    <t>オーク2 リーダ</t>
+  </si>
+  <si>
     <t xml:space="preserve">オーク2 </t>
   </si>
   <si>
@@ -112,6 +200,12 @@
   </si>
   <si>
     <t>オーク</t>
+  </si>
+  <si>
+    <t>旗</t>
+  </si>
+  <si>
+    <t>旗２</t>
   </si>
 </sst>
 </file>
@@ -450,7 +544,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,149 +552,361 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map141.xlsx
+++ b/data/Map141.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE21745-51E3-4D2F-86DA-8BDEC59EE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>イベント実行</t>
   </si>
@@ -206,19 +212,90 @@
   </si>
   <si>
     <t>旗２</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;The hell is this, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I hate orcs and their squealing!
+Shut up you little goblin freak!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Oi! He just squoinked!
+Did you hear that!? Just now!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;We're paying you 3 acorns an hour, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Why are there so many orcs in the mansion?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Charm♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;There we are♥
+Seems like that worked just fine.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Alright? Orc!
+Work hard for us now!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Where did you come from?
+…?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Lily, what will you do with this little one?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Do your best, little orc-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Orc&gt;Oink oink!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Orc&gt;Oink, snort…</t>
+  </si>
+  <si>
+    <t>\n&lt;Orc&gt;Oink!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Orc&gt;Oink...♥
+Oink oink...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Orc&gt;Snort...♥
+Snort, squeal...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Orc&gt;Oink...
+Squoink♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Orc&gt;Oink oink!</t>
+  </si>
+  <si>
+    <t>\n&lt;Orc&gt;Oiiiiiiiiinnnkk!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Simple chores and security work, I figure.
+They're pretty simple minded after all.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;What is it trying to say?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Alright then.
+Let's put it to work.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -229,28 +306,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -540,19 +629,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,298 +651,364 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -859,7 +1016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -867,7 +1024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -875,7 +1032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -883,7 +1040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -891,7 +1048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -899,28 +1056,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/data/Map141.xlsx
+++ b/data/Map141.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE21745-51E3-4D2F-86DA-8BDEC59EE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C095995-B80A-4117-AF6B-38008BF50A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
   <si>
     <t>イベント実行</t>
   </si>
@@ -288,6 +287,91 @@
   <si>
     <t>\n&lt;Lily&gt;Alright then.
 Let's put it to work.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What are you, stupid? Knock that off!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Huh～? What'd you just say to me, nya!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hah? A game?
+Like what, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Scared you'll lose, nya?
+You know you can never beat my insane reflexes, nyaan!
+Nyah nyah! Neener neener!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I don't know what that meeeeans.
+Are you to nervous, nyaah?
+Nya nya nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Oh, we doing this, nya?
+We'll pick whether to raise the white or red flag.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Then I'll let you lick my shoes and my ass.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;We haven't raised a single freaking flag!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Hey hey hey hey hey. Calm down now.
+Let's play a game to decide who's wrong.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;The flag game!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Loser has to apologize. No excuses.
+One round.
+Are you ready-?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Red\.\. flag\. don't raise♪\.\.\.\. White\.\. flag\. don't raise♪\.\.\.\.
+Red\.\. flag\. don't raise♪\.\.\.\.\. White\.\. flag\. don't raise♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Red\.\. flag\. down♪\.\.\.\. White\.\. flag\. down♪\.\.\.\.
+White\.\. flag\. don't raise♪\.\.\.\. White\.\. flag\. down♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Red\.\. flag\. don't raise♪\.\.\.\. White\.\. flag\. don't raise♪\.\.\.\.
+White\.\. flag\. don't\.\.\^</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;W-wait wait wait a minute-!
+I was just about to-!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I'm not playing some ridiculous game.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Did you have your brain ironed?
+It's got no wrinkles whatsoever.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Raising the flags is about intelligence
+more than reflexes. I'd never lose to you.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;If I lose, I'll lick your shoes and your ass.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Are you trying to make me mad!</t>
+  </si>
+  <si>
+    <t>\n&lt;Researcher 1&gt;These three are really tight knit, aren't they?</t>
+  </si>
+  <si>
+    <t>\n&lt;Researcher 1&gt;Err, she might not realize what she's doing.</t>
+  </si>
+  <si>
+    <t>\n&lt;Researcher 2&gt;The moment one of them wins, they'll start fighting again.
+You're too pure, Lime.</t>
   </si>
 </sst>
 </file>
@@ -632,15 +716,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" customWidth="1"/>
     <col min="2" max="2" width="70.140625" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,118 +981,187 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1016,7 +1169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
